--- a/feature/motification-motif/ig/ValueSet-sas-valueset-appointmentreason.xlsx
+++ b/feature/motification-motif/ig/ValueSet-sas-valueset-appointmentreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T14:31:42+00:00</t>
+    <t>2024-11-18T14:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
